--- a/biology/Neurosciences/Prix_Kavli/Prix_Kavli.xlsx
+++ b/biology/Neurosciences/Prix_Kavli/Prix_Kavli.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,43 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les prix Kavli sont trois prix remis tous les deux ans pour souligner un travail scientifique exceptionnel dans l'un des trois domaines de l'astrophysique, des nanosciences et des neurosciences. Il a été créé en 2005 de façon conjointe par l'Académie norvégienne des sciences et des lettres, le ministère de l'Éducation norvégien et la Fondation Kavli, auxquels s'est ensuite ajoutée l'Union astronomique internationale. Chacun des prix consiste en un million de dollars américains, un parchemin et une médaille en or. Les premiers prix ont été remis à Oslo par le prince Haakon le 9 décembre 2008.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Prix_Kavli</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Portail:Neurosciences/Articles liés</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Prix_Kavli</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Lauréats</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Astrophysique
-Nanosciences
-Neurosciences</t>
         </is>
       </c>
     </row>
